--- a/example_data/Summary/during/Averages by Sample/Avg Raw Means_during_.xlsx
+++ b/example_data/Summary/during/Averages by Sample/Avg Raw Means_during_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,60 +528,75 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8_baseline</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Event 9_baseline</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Group 1_baseline</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Group 2_baseline</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Group 3_baseline</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -590,295 +605,967 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005426884197235241</v>
+        <v>0.003979096527124235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007410930825382986</v>
+        <v>0.003044442132008555</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.004855718243250228</v>
+        <v>0.004023747704833374</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004459079954212981</v>
+        <v>0.003063484713929302</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.01232841732948744</v>
+        <v>0.004589468159140568</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01518135966193212</v>
+        <v>0.004687254607196444</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.007308833109613883</v>
+        <v>0.003101716718700599</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008913901454339093</v>
+        <v>0.004908180382250176</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.00370666302817957</v>
+        <v>0.003349920095823342</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01841727739071195</v>
+        <v>0.0105440134505029</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.004382379991571536</v>
+        <v>0.004296309457967143</v>
       </c>
       <c r="R2" t="n">
-        <v>0.003288467633719779</v>
+        <v>0.005053374040644952</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.01427230599707973</v>
+        <v>0.005259868307128616</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01135763657676596</v>
+        <v>0.005116879372510446</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>0.004382379991571536</v>
+        <v>0.003874317810747568</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003288467633719779</v>
+        <v>0.004557806954874485</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>0.004382379991571536</v>
+        <v>0.003575843817488399</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003288467633719779</v>
+        <v>0.004782925029771467</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>0.005426884197235241</v>
+        <v>0.004030847280578768</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.007410930825382986</v>
+        <v>0.004520712051191398</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.003981723066989478</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.003045562283886246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004739322568600702</v>
+        <v>0.004860942670025133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005309438605312479</v>
+        <v>0.004862064821600971</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.002230777151639051</v>
+        <v>0.001243208940849789</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002408075706816345</v>
+        <v>0.001209142975868945</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.002203103260033022</v>
+        <v>0.006169098485984827</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00363083862832657</v>
+        <v>0.01182621673413524</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.002312337512732698</v>
+        <v>0.006619421236768816</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002441615779510496</v>
+        <v>0.008098229343198352</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.002913145550061236</v>
+        <v>0.002987364636851238</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001780811804655914</v>
+        <v>0.02270849798839597</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.005248690634366415</v>
+        <v>0.0008311976510971759</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005032681475133611</v>
+        <v>0.001218190438824545</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>0.005248690634366415</v>
+        <v>0.008657138678248777</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005032681475133611</v>
+        <v>0.007909232208459502</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>0.005248690634366415</v>
+        <v>0.006934869255660238</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.005032681475133611</v>
+        <v>0.007995154227793433</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>0.00481691968503372</v>
+        <v>0.006312152544153973</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.004742532837912814</v>
+        <v>0.009209288653343469</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.004860942670025133</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.004862064821600971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002454343331972776</v>
+        <v>0.0099435755618288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003023384687471098</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.01839086216429073</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.009889589574434626</v>
+        <v>0.01012875032125358</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.00206316703123573</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001532317460591722</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01268716010601208</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.00532056810754836</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.009159991660786017</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.009018652345135192</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.009265032194522722</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.006863048043523208</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>0.008096402524971586</v>
+        <v>0.009663181956706542</v>
       </c>
       <c r="X4" t="n">
-        <v>0.008775651560023683</v>
+        <v>0.009218989966685147</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>0.0119410605509754</v>
+        <v>0.009971178352243822</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01277174430475409</v>
+        <v>0.008634423020477591</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>0.002268038181694672</v>
+        <v>0.01110925376911686</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002510627203592138</v>
+        <v>0.007268032567944145</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.0099435755618288</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.01012875032125358</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001130129597475021</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001242999745273721</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0004206361168718548</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001204713775476918</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001917773873270615</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001866772503824855</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.001569024506312425</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.001666088355304899</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0.003014826132580762</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.004669414293121127</v>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>0.002275647527785348</v>
+        <v>0.001660097819549128</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002405590513636844</v>
+        <v>0.001495191485146634</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>0.002203103260033022</v>
+        <v>0.001800826577180452</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00363083862832657</v>
+        <v>0.001883657874818121</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.001976559858101458</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.001868774285090511</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.001172534351240559</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.00123030345674693</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.001904872093215441</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.001784641282514323</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00936992222251737</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.00789364552250227</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.002261351283294895</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001803681979816976</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002399378985883194</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.002512647733405642</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.002386595852846059</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.00524650607461116</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0.002562346391241109</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.002143219240713133</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.002335239477340364</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.002011310944972431</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.002351540786714167</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.001810939240679949</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.001866667289693632</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.001794035983340994</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0009098354929776069</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0008054150117250536</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002037356888589368</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0016665971835408</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0009343400065600406</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0009459274843835189</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0009394100393933881</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.00115353841329958</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0009733252611218643</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.003178767244561496</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>0.001469767489838006</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.00107405787282059</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0009177496375264016</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0009931908087519876</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0009343400065600406</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.0009459274843835189</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0008283022636266482</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.0008719648056836976</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.00829910080825034</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.008280338596384301</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01696684871972207</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01547426178140848</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.01504560976002037</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01608113657799596</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0.009519498895569314</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0386043282424763</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>0.002371990048685432</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.002759268865280517</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01673047055948536</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.01515684733564667</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.01696684871972207</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.01547426178140848</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.009102216868950613</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.007990318790972778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0015377122789921</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00234592560374903</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.001431811333718907</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001292230006039881</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002453060937227973</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00263967818195219</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.002264341300551522</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.005142861006525302</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.001948243809942892</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.001866648692738876</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.001582930119550757</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.001349520490800195</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.0015377122789921</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.00234592560374903</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.003490184143213557</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.004046383584866253</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00366716314403597</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.002880891387095943</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.003683780957451587</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.005370085582787305</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0.004888385306071014</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.007291650119578333</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.003690434180942953</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.00426658595639637</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.004229987101771387</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.003714634535698095</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.003490184143213557</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.004046383584866253</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.001691114213649011</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001553784942758301</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.001968909000040897</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.002554956714870685</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.00177993090882598</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.002722309622403189</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.001810847649190773</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.003256836875953514</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.001854261171368028</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.002660481211795558</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.001968909000040897</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.002554956714870685</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.001811546448410874</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.001593023983030475</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +1579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,60 +1680,75 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8_baseline</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Event 9_baseline</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Group 1_baseline</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Group 2_baseline</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Group 3_baseline</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -1055,295 +1757,967 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2766338225389435</v>
+        <v>0.3343825099207504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3777700146691588</v>
+        <v>0.2558390314158159</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1570294024208811</v>
+        <v>0.3381347619135138</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1442024898232776</v>
+        <v>0.2574392706396261</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.3986895262581824</v>
+        <v>0.3856749570646631</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4909510223257864</v>
+        <v>0.3938924199269653</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.2363608508776225</v>
+        <v>0.2606520888327971</v>
       </c>
       <c r="L2" t="n">
-        <v>0.288267265210297</v>
+        <v>0.4124578693110353</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1198700276935769</v>
+        <v>0.2815098055650653</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5955975857749264</v>
+        <v>0.8860638735912807</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.7505359662027111</v>
+        <v>0.3610394294680699</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5631901472594903</v>
+        <v>0.4246591867678173</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.4615530740492954</v>
+        <v>0.4420118874727066</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3672953814901143</v>
+        <v>0.4299958434982538</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>0.7505359662027111</v>
+        <v>0.3255774533131828</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5631901472594903</v>
+        <v>0.3830143146606805</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>0.7505359662027111</v>
+        <v>0.3004952563039536</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5631901472594903</v>
+        <v>0.4019320630489016</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>0.2766338225389435</v>
+        <v>0.3387313732148317</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3777700146691588</v>
+        <v>0.3798970525097712</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3346032306262071</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.2559331631348636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1532652747843574</v>
+        <v>0.186163830862389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.171702296059193</v>
+        <v>0.186206806896123</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.268105072575916</v>
+        <v>0.2376470976421684</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2894136295371023</v>
+        <v>0.2311351772078257</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.2647790968225598</v>
+        <v>0.236263433880894</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4363709092338964</v>
+        <v>0.452919106701607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.2779073724220766</v>
+        <v>0.2535098434975708</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2934446299520294</v>
+        <v>0.3101450685745731</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3501152495440961</v>
+        <v>0.1144097519208513</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2140261647294182</v>
+        <v>0.8696874794922834</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.2675504581890371</v>
+        <v>0.1588885849028803</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2565394549595161</v>
+        <v>0.2328646558511772</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>0.2675504581890371</v>
+        <v>0.331550114875438</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2565394549595161</v>
+        <v>0.302906877751636</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>0.2675504581890371</v>
+        <v>0.2655908359348823</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2565394549595161</v>
+        <v>0.3061975094995216</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>0.1557746932087066</v>
+        <v>0.2417421019699874</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.153369091901916</v>
+        <v>0.3526962919756236</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.186163830862389</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.186206806896123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2949742858273848</v>
+        <v>0.5565346026230638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3633642968163716</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.5947433419716533</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.3198201096655388</v>
+        <v>0.5668986975616994</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2823096366559502</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2096718195822078</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7100910094271973</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.297788279382148</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5126779886438092</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5047673312166452</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5185570299744631</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3841197456524085</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>0.261830111749687</v>
+        <v>0.5408411790015044</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2837963924780753</v>
+        <v>0.5159800803838319</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>0.3861627690605268</v>
+        <v>0.5580795104783309</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.413026307454239</v>
+        <v>0.4832622988281631</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>0.2725832747844942</v>
+        <v>0.6217767535823021</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3017387407503138</v>
+        <v>0.4067864312893449</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.5565346026230638</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.5668986975616994</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2160312800001822</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.237607108610672</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1183069224856996</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3388343832971962</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3665943671585996</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3568451391517</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2999287632211748</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3184831198068601</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5763027088703573</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8925874951402635</v>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>0.2734978010447245</v>
+        <v>0.3173379917524338</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2891149475745111</v>
+        <v>0.2858151234188344</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>0.2647790968225598</v>
+        <v>0.3442391663715707</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4363709092338964</v>
+        <v>0.3600728825159151</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.3778316726653771</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.3572277920528063</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.224137211615927</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.2351801343346046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2606496422103148</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2441980820748501</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2263664762569353</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.190701339810066</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3094278114535784</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.246803480598482</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3283145763040323</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3438134954285709</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.3265654199883282</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7178959343633883</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0.3506139191574317</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2932634323636762</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.3195381655346278</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.2752140052069428</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.3217687249884488</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.2477965144373935</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.2554219587326984</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.2454835885494666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2558977530101917</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.226528744297065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3526755757085849</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2884954150504866</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2627898230742323</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2660488842572372</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2642158061445294</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3244409459211652</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2737547053193202</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8940510691263021</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>0.2378960792826355</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1738466516869468</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.2581236628836421</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.279342032962726</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.2627898230742323</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.2660488842572372</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.2329659479227764</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.2452463507970869</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2004966702445038</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2000433969209863</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4098994278349635</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.373840254908083</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3634845181882141</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3885016476038</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2299800755595673</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9326358901373741</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1674011596609976</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1947330293904198</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.4041888050649802</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.3661718892702682</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.4098994278349635</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.373840254908083</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.2198990247538275</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.1930368540877961</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2488936003594052</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3797107415147376</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2317525084200302</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2091599209356215</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.397051631120404</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4272574365647145</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3665055332107821</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8324217797760416</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.3153420980369906</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.302135139381522</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.25621254506114</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.2184329398307274</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.2488936003594052</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3797107415147376</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2463167471247087</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2855700448301783</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2588068880465628</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2033164343689023</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2599796759502667</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3789891760024905</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3449935928523757</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5146019421692534</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.260449221481689</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.3011106380020057</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.2985277052827551</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.2621571407254749</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.2463167471247087</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.2855700448301783</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2927394224487509</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2689671123815857</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3408269405307868</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4422744171009823</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3081139890156126</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4712439527484145</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3134658148386943</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5637730073944632</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.3209808894008159</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.4605411787630031</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.3408269405307868</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.4422744171009823</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.3135867801043453</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.2757595654838121</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,60 +2832,75 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8_baseline</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Event 9_baseline</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Group 1_baseline</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Group 2_baseline</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Group 3_baseline</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -1520,307 +2909,404 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07330159455975387</v>
+        <v>0.3633271206242388</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8885734342662005</v>
+        <v>-0.1955688680172094</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.3418353201434567</v>
+        <v>0.3900272187997424</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4497822441222531</v>
+        <v>-0.1841819610444298</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.691893904880295</v>
+        <v>0.7283115025488986</v>
       </c>
       <c r="I2" t="n">
-        <v>2.468335205652887</v>
+        <v>0.7867849381284318</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.3257911075354527</v>
+        <v>-0.1613203405181029</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7626177966818297</v>
+        <v>0.918892089296058</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.654555950947266</v>
+        <v>-0.01290198121215566</v>
       </c>
       <c r="O2" t="n">
-        <v>3.34900501168221</v>
+        <v>4.288955409984156</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.400963974682067</v>
+        <v>0.55301117445181</v>
       </c>
       <c r="R2" t="n">
-        <v>1.202760876709851</v>
+        <v>1.005713649946799</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.220932094141248</v>
+        <v>1.129191181126539</v>
       </c>
       <c r="U2" t="n">
-        <v>1.427691484159729</v>
+        <v>1.043687980803688</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>2.400963974682067</v>
+        <v>0.3006725131201769</v>
       </c>
       <c r="X2" t="n">
-        <v>1.202760876709851</v>
+        <v>0.7093790285217673</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>2.400963974682067</v>
+        <v>0.1221937958337753</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.202760876709851</v>
+        <v>0.8439930523664169</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>0.07330159455975387</v>
+        <v>0.394272557425327</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8885734342662005</v>
+        <v>0.6871973611847706</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3648977146345625</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.1948990499599871</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3735129352152412</v>
+        <v>-0.06507737287607328</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2183532489847483</v>
+        <v>-0.06479433330278693</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.1273781114301228</v>
+        <v>-0.1690247635928693</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02322516261597018</v>
+        <v>-0.2111042049944832</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-0.1508852329478195</v>
+        <v>0.2648779307689957</v>
       </c>
       <c r="I3" t="n">
-        <v>1.061880549161326</v>
+        <v>1.69176924337242</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-0.05809803522870206</v>
+        <v>0.3784625497879521</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05171521294058779</v>
+        <v>0.7514613713631806</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.452248241447967</v>
+        <v>-0.5376487602418053</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.5095936032325352</v>
+        <v>4.436600074527226</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>7.942741767416145e-05</v>
+        <v>-0.6779551559565494</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.08868168441444983</v>
+        <v>-0.1999284702842664</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>7.942741767416145e-05</v>
+        <v>0.8924347149868795</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.08868168441444983</v>
+        <v>0.7037907451120896</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>7.942741767416145e-05</v>
+        <v>0.4580278015627923</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.08868168441444983</v>
+        <v>0.725462801019532</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>-0.3523945251673848</v>
+        <v>0.3009603642413662</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.3726392457430849</v>
+        <v>1.031703149578008</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.06507737287607328</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.06479433330278693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06252641819545322</v>
+        <v>0.3300710976018104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5458890215735609</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.341815987028804</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.028155779872042</v>
-      </c>
+        <v>0.3870540302096636</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.24884324036278</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.2302270977337185</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1.174341092447683</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1.092544614340702</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08894261570491609</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0454489520782447</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1212662308326191</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.6178847281140111</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="W4" t="n">
-        <v>0.5401317250638309</v>
+        <v>0.2437869303968031</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7249924558001763</v>
+        <v>0.1070978788707542</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>1.586472986430378</v>
+        <v>0.3385651707189774</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.812547368299114</v>
+        <v>-0.07278807861069758</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>-0.09572735649252678</v>
+        <v>0.6887796113035459</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1103358057755686</v>
+        <v>-0.4932608002418323</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.3300710976018104</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.3870540302096636</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3087042238972292</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1692831691008188</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.9446969385790609</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.870442835396828</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6642208397930087</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6012222093945536</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2334337313397724</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.35333030694509</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>2.01933719378761</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.063140901811527</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1829,29 +3315,634 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>-0.08926372550884733</v>
+        <v>0.3459305929360789</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02111415709144377</v>
+        <v>0.142232666306181</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1508852329478195</v>
+        <v>0.5197635524192211</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.061880549161326</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+        <v>0.6220795953413533</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.736835292526598</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.6036948778633426</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.2563244262830943</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.1849660575609429</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1059884399259172</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.002515020032284316</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.04644478042804436</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.3101357492282755</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.427696538716593</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01466844172187816</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5522609761813139</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6544814547728578</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5407247139241858</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.121678401433973</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0.6993324900356248</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.3210871323813529</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.4943776552893338</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.2020452129133443</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.5090889298668931</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.02121782709872143</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.07151014484526182</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.005963318748113687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1877996135526523</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.0539337997885924</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4393482364517517</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02440080108476253</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2445275623180077</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2713525733951989</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2562646882903829</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7519718723279821</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3347784263454757</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.440376601989883</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.2033063926476621</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.6070946218159156</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.2061208581256309</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.3807671689649259</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.2445275623180077</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.2713525733951989</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.0009498118026332039</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.100128972742311</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2377137587552229</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.2410650450173041</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1.310510123711244</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.043905837551031</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9673404709115306</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.152305166112512</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.0197275547029623</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.175373626394631</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.4197297681792074</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.2145410975291334</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.268288508972357</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.9872096079666554</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.310510123711244</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.043905837551031</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.094262025009839</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.2928680731755327</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1339744762274083</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6907389326949323</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.2420374429084151</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3844683940520334</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8000614882417915</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9904886184879939</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6074890446473608</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.54477518760688</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.2849382637504437</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.2016773409229462</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.08783349056319346</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3260082950432698</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.1339744762274083</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.6907389326949323</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1727135825886153</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4674000440181674</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2664808746677404</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.1501028620691521</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2752853506621668</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.168725914816427</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0.9135107179198485</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.186812254624458</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.2788103719781623</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.5840680102278939</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.5646771476089677</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.2916322419299592</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1727135825886153</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.4674000440181674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.006265285226982303</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1655072033524207</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3537331008166583</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.086766005962556</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1173578779349676</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.296092285869293</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1560287701400974</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.96468300917491</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.21033073136087</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.218756843205843</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.3537331008166583</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.086766005962556</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.156902833479076</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.1164267156071483</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
